--- a/03_Algorithm/Microsoft/status.xlsx
+++ b/03_Algorithm/Microsoft/status.xlsx
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
